--- a/test data/rebill.xlsx
+++ b/test data/rebill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5397" uniqueCount="1209">
   <si>
     <t>1</t>
   </si>
@@ -3638,13 +3638,19 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Made It To Step Four</t>
-  </si>
-  <si>
     <t>Made It To Step Five</t>
   </si>
   <si>
     <t>Made It To Step Six</t>
+  </si>
+  <si>
+    <t>Made It To Step Four Trying To Rebill A Partial Amount</t>
+  </si>
+  <si>
+    <t>Made It To Step Five The requested adjustment requires Management approval. Press continue to process and create the case for approval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made It To Step Six </t>
   </si>
 </sst>
 </file>
@@ -3967,7 +3973,7 @@
   <dimension ref="A1:P407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,46 +4033,43 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B2" t="s">
         <v>1203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
@@ -4074,43 +4077,46 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B3" t="s">
         <v>1203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>7</v>
@@ -4118,7 +4124,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B4" t="s">
         <v>1203</v>
@@ -4162,7 +4168,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B5" t="s">
         <v>1203</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B6" t="s">
         <v>1203</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B7" t="s">
         <v>1203</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B8" t="s">
         <v>1203</v>
@@ -4341,7 +4347,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B9" t="s">
         <v>1203</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B10" t="s">
         <v>1203</v>
@@ -4429,7 +4435,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B11" t="s">
         <v>1203</v>

--- a/test data/rebill.xlsx
+++ b/test data/rebill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1F1D309-3E9E-4DC1-8DFA-994BC276431F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView windowHeight="11160" windowWidth="20580" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -18,8 +12,8 @@
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Q$76</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="228">
   <si>
     <t>1</t>
   </si>
@@ -706,14 +700,20 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,19 +1024,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q74"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="4" style="1" width="8.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1086,30 +1088,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -1133,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -1141,63 +1140,66 @@
         <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -1212,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>3</v>
@@ -1221,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -1229,19 +1231,19 @@
         <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
@@ -1256,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>3</v>
@@ -1265,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -1273,19 +1275,19 @@
         <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
@@ -1300,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>3</v>
@@ -1309,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -1317,22 +1319,22 @@
         <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>8</v>
@@ -1353,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>224</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>224</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>224</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>224</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>224</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -2286,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>224</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>224</v>
       </c>
@@ -3058,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>224</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>224</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>224</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>224</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" s="1" t="s">
@@ -3720,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" s="1" t="s">
@@ -3760,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62" s="1" t="s">
@@ -3803,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63" s="1" t="s">
@@ -3846,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" s="1" t="s">
@@ -3889,7 +3891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
@@ -3929,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
@@ -3972,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="1" t="s">
@@ -4015,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="1" t="s">
@@ -4058,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="1" t="s">
@@ -4101,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="1" t="s">
@@ -4144,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="1" t="s">
@@ -4184,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="1" t="s">
@@ -4227,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" s="1" t="s">
@@ -4270,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74" s="1" t="s">
@@ -4310,7 +4312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="B75"/>
       <c r="C75" s="1" t="s">
         <v>215</v>
@@ -4352,7 +4354,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="B76"/>
       <c r="C76" s="1" t="s">
         <v>220</v>
@@ -4394,976 +4396,977 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/test data/rebill.xlsx
+++ b/test data/rebill.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20580" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="175">
   <si>
     <t>1</t>
   </si>
@@ -554,7 +554,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -582,17 +581,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -609,10 +608,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -776,21 +775,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -807,7 +806,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -859,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,19 +866,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="78.28515625" collapsed="true"/>
-    <col min="3" max="4" style="1" width="8.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="78.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="8.7109375" style="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1743,7 +1743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="1" t="s">
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="1" t="s">
@@ -4345,8 +4345,15 @@
       <c r="B398"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <autoFilter ref="A1:Q52">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6717,6 +6724,6 @@
       <c r="Q52" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>